--- a/core/ads/hydac/info.xlsx
+++ b/core/ads/hydac/info.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">sl9087</t>
   </si>
   <si>
-    <t xml:space="preserve">dold</t>
+    <t xml:space="preserve">hydac</t>
   </si>
   <si>
     <t xml:space="preserve">реле</t>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B423 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1542,7 +1542,7 @@
   <dimension ref="A2:D423"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J402" activeCellId="0" sqref="J402"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B2:B423 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
